--- a/SuppXLS/Scen_Par-CO2Prices.xlsx
+++ b/SuppXLS/Scen_Par-CO2Prices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\EU_TIMES_Veda2p0\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewVEDA\Veda_models\EU_TIMES_Veda2.0\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13EA93F-6B64-44D1-A221-345B653BB032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C74946-1C21-4EF8-84FC-061730B616A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42D750B0-CEFB-4329-BDFD-6DE0E00DC078}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -166,10 +166,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$J$7:$J$13</c:f>
+              <c:f>Sheet1!$J$7:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2020</c:v>
                 </c:pt>
@@ -190,36 +190,48 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2060</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$7:$L$13</c:f>
+              <c:f>Sheet1!$L$7:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.762815625000002</c:v>
+                  <c:v>13.382255776000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.288946267774417</c:v>
+                  <c:v>17.908476965428545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.789281794113677</c:v>
+                  <c:v>23.965581930996926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.53297705144421</c:v>
+                  <c:v>32.071354722128483</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.863549408993862</c:v>
+                  <c:v>42.918707197434884</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.219423751506625</c:v>
+                  <c:v>57.434911729132594</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.860867923123507</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102.85717937125929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -259,10 +271,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$J$7:$J$13</c:f>
+              <c:f>Sheet1!$J$7:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2020</c:v>
                 </c:pt>
@@ -283,36 +295,48 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2060</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$7:$M$13</c:f>
+              <c:f>Sheet1!$M$7:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.604400096140619</c:v>
+                  <c:v>33.455639440000013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.622166875303893</c:v>
+                  <c:v>44.771192413571363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.487147383569244</c:v>
+                  <c:v>59.913954827492311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.76636235906134</c:v>
+                  <c:v>80.178386805321196</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.200885229313826</c:v>
+                  <c:v>107.29676799358721</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.759269325925899</c:v>
+                  <c:v>143.58727932283148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>192.15216980780875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>257.1429484281482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -352,10 +376,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$J$7:$J$13</c:f>
+              <c:f>Sheet1!$J$7:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2020</c:v>
                 </c:pt>
@@ -376,36 +400,48 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2060</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$7:$N$13</c:f>
+              <c:f>Sheet1!$N$7:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.764511552000009</c:v>
+                  <c:v>53.529023104000018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.816953930857089</c:v>
+                  <c:v>71.633907861714178</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.931163861993852</c:v>
+                  <c:v>95.862327723987704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.142709444256965</c:v>
+                  <c:v>128.28541888851393</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.837414394869768</c:v>
+                  <c:v>171.67482878973954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>114.86982345826519</c:v>
+                  <c:v>229.73964691653038</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>307.44347169249403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>411.42871748503717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -445,10 +481,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$J$7:$J$13</c:f>
+              <c:f>Sheet1!$J$7:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2020</c:v>
                 </c:pt>
@@ -469,36 +505,48 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2060</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$7:$O$13</c:f>
+              <c:f>Sheet1!$O$7:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.252166585390611</c:v>
+                  <c:v>73.602406768000023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.928436631733966</c:v>
+                  <c:v>98.496623309857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.296025164083943</c:v>
+                  <c:v>131.81070062048309</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.091126587946817</c:v>
+                  <c:v>176.39245097170664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120.69247770340345</c:v>
+                  <c:v>236.05288958589185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>165.35915407602067</c:v>
+                  <c:v>315.89201451022927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>422.73477357717928</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>565.71448654192614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -538,10 +586,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$J$7:$J$13</c:f>
+              <c:f>Sheet1!$J$7:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2020</c:v>
                 </c:pt>
@@ -562,36 +610,48 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2060</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$7:$P$13</c:f>
+              <c:f>Sheet1!$P$7:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.076551921000004</c:v>
+                  <c:v>93.675790432000028</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.014540718686966</c:v>
+                  <c:v>125.35933875799982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.770946221460036</c:v>
+                  <c:v>167.75907351697848</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116.09053387458539</c:v>
+                  <c:v>224.49948305489937</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>162.82297920368674</c:v>
+                  <c:v>300.43095038204416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>228.36765127986092</c:v>
+                  <c:v>402.04438210392817</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>538.02607546186448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>720.00025559881499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1365,16 +1425,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1699,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BAEE56-002E-4743-9C01-B774D75D3523}">
-  <dimension ref="B3:Q13"/>
+  <dimension ref="B3:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,23 +1778,19 @@
         <v>6</v>
       </c>
       <c r="L3">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M3">
-        <f>L3+0.005</f>
-        <v>5.5E-2</v>
+        <v>0.06</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3" si="0">M3+0.005</f>
         <v>0.06</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3" si="1">N3+0.005</f>
-        <v>6.5000000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3" si="2">O3+0.005</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -1750,20 +1806,20 @@
         <v>10</v>
       </c>
       <c r="M5">
-        <f>L5+5</f>
-        <v>15</v>
+        <f>L5+15</f>
+        <v>25</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:P5" si="3">M5+5</f>
-        <v>20</v>
+        <f t="shared" ref="N5:P5" si="0">M5+15</f>
+        <v>40</v>
       </c>
       <c r="O5">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="P5">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
@@ -1810,7 +1866,7 @@
         <v>2020</v>
       </c>
       <c r="G7" s="1">
-        <f>VLOOKUP(F7,$J$7:$W$13,$B$4+1,FALSE)/1000</f>
+        <f>VLOOKUP(F7,$J$7:$W$17,$B$4+1,FALSE)/1000</f>
         <v>0</v>
       </c>
       <c r="J7">
@@ -1820,24 +1876,24 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:P7" si="4">L$5*(1+L$3)^($J7-2020)</f>
+        <f t="shared" ref="L7:P7" si="1">L$5*(1+L$3)^($J7-2020)</f>
         <v>10</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="Q7" s="1"/>
     </row>
@@ -1849,11 +1905,11 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F12" si="5">J8</f>
+        <f t="shared" ref="F8:F12" si="2">J8</f>
         <v>2025</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ref="G8:G12" si="6">VLOOKUP(F8,$J$7:$W$13,$B$4+1,FALSE)/1000</f>
+        <f t="shared" ref="G8:G15" si="3">VLOOKUP(F8,$J$7:$W$17,$B$4+1,FALSE)/1000</f>
         <v>0</v>
       </c>
       <c r="J8">
@@ -1863,24 +1919,24 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" ref="L8:P13" si="7">L$5*(1+L$3)^($J8-2020)</f>
-        <v>12.762815625000002</v>
+        <f t="shared" ref="L8:P15" si="4">L$5*(1+L$3)^($J8-2020)</f>
+        <v>13.382255776000004</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="7"/>
-        <v>19.604400096140619</v>
+        <f t="shared" si="4"/>
+        <v>33.455639440000013</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="7"/>
-        <v>26.764511552000009</v>
+        <f t="shared" si="4"/>
+        <v>53.529023104000018</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="7"/>
-        <v>34.252166585390611</v>
+        <f t="shared" si="4"/>
+        <v>73.602406768000023</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="7"/>
-        <v>42.076551921000004</v>
+        <f t="shared" si="4"/>
+        <v>93.675790432000028</v>
       </c>
       <c r="Q8" s="1"/>
     </row>
@@ -1892,11 +1948,11 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2030</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9">
@@ -1906,24 +1962,24 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="7"/>
-        <v>16.288946267774417</v>
+        <f t="shared" si="4"/>
+        <v>17.908476965428545</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="7"/>
-        <v>25.622166875303893</v>
+        <f t="shared" si="4"/>
+        <v>44.771192413571363</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="7"/>
-        <v>35.816953930857089</v>
+        <f t="shared" si="4"/>
+        <v>71.633907861714178</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="7"/>
-        <v>46.928436631733966</v>
+        <f t="shared" si="4"/>
+        <v>98.496623309857</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="7"/>
-        <v>59.014540718686966</v>
+        <f t="shared" si="4"/>
+        <v>125.35933875799982</v>
       </c>
       <c r="Q9" s="1"/>
     </row>
@@ -1935,11 +1991,11 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2035</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10">
@@ -1949,24 +2005,24 @@
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="7"/>
-        <v>20.789281794113677</v>
+        <f t="shared" si="4"/>
+        <v>23.965581930996926</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="7"/>
-        <v>33.487147383569244</v>
+        <f t="shared" si="4"/>
+        <v>59.913954827492311</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="7"/>
-        <v>47.931163861993852</v>
+        <f t="shared" si="4"/>
+        <v>95.862327723987704</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="7"/>
-        <v>64.296025164083943</v>
+        <f t="shared" si="4"/>
+        <v>131.81070062048309</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="7"/>
-        <v>82.770946221460036</v>
+        <f t="shared" si="4"/>
+        <v>167.75907351697848</v>
       </c>
       <c r="Q10" s="1"/>
     </row>
@@ -1978,11 +2034,11 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2040</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11">
@@ -1992,24 +2048,24 @@
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="7"/>
-        <v>26.53297705144421</v>
+        <f t="shared" si="4"/>
+        <v>32.071354722128483</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="7"/>
-        <v>43.76636235906134</v>
+        <f t="shared" si="4"/>
+        <v>80.178386805321196</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="7"/>
-        <v>64.142709444256965</v>
+        <f t="shared" si="4"/>
+        <v>128.28541888851393</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="7"/>
-        <v>88.091126587946817</v>
+        <f t="shared" si="4"/>
+        <v>176.39245097170664</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="7"/>
-        <v>116.09053387458539</v>
+        <f t="shared" si="4"/>
+        <v>224.49948305489937</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
@@ -2021,11 +2077,11 @@
         <v>7</v>
       </c>
       <c r="F12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2045</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12">
@@ -2035,24 +2091,24 @@
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="7"/>
-        <v>33.863549408993862</v>
+        <f t="shared" si="4"/>
+        <v>42.918707197434884</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="7"/>
-        <v>57.200885229313826</v>
+        <f t="shared" si="4"/>
+        <v>107.29676799358721</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="7"/>
-        <v>85.837414394869768</v>
+        <f t="shared" si="4"/>
+        <v>171.67482878973954</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="7"/>
-        <v>120.69247770340345</v>
+        <f t="shared" si="4"/>
+        <v>236.05288958589185</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="7"/>
-        <v>162.82297920368674</v>
+        <f t="shared" si="4"/>
+        <v>300.43095038204416</v>
       </c>
       <c r="Q12" s="1"/>
     </row>
@@ -2068,7 +2124,7 @@
         <v>2050</v>
       </c>
       <c r="G13" s="1">
-        <f>VLOOKUP(F13,$J$7:$W$13,$B$4+1,FALSE)/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
@@ -2078,26 +2134,110 @@
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="7"/>
-        <v>43.219423751506625</v>
+        <f t="shared" si="4"/>
+        <v>57.434911729132594</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="7"/>
-        <v>74.759269325925899</v>
+        <f t="shared" si="4"/>
+        <v>143.58727932283148</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="7"/>
-        <v>114.86982345826519</v>
+        <f t="shared" si="4"/>
+        <v>229.73964691653038</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="7"/>
-        <v>165.35915407602067</v>
+        <f t="shared" si="4"/>
+        <v>315.89201451022927</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="7"/>
-        <v>228.36765127986092</v>
+        <f t="shared" si="4"/>
+        <v>402.04438210392817</v>
       </c>
       <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <f>J14</f>
+        <v>2055</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2055</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="4"/>
+        <v>76.860867923123507</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="4"/>
+        <v>192.15216980780875</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="4"/>
+        <v>307.44347169249403</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="4"/>
+        <v>422.73477357717928</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="4"/>
+        <v>538.02607546186448</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <f>J15</f>
+        <v>2060</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2060</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="4"/>
+        <v>102.85717937125929</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="4"/>
+        <v>257.1429484281482</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="4"/>
+        <v>411.42871748503717</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="4"/>
+        <v>565.71448654192614</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="4"/>
+        <v>720.00025559881499</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
